--- a/Output_testing/R1_201907/Country/HKD/MN/SLOVAK_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/SLOVAK_201907_HKD_MN.xlsx
@@ -547,14 +547,20 @@
       <c r="D7" s="8" t="n">
         <v>0.8625350000000001</v>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>0.080341</v>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0.197614</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.108988</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>-90.68547942982023</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/SLOVAK_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/SLOVAK_201907_HKD_MN.xlsx
@@ -816,136 +816,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>1439.972429</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>61.09782105049126</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>1094.939612</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>55.04975026286372</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>1260.697843</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>58.578261337142</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>550.454772</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>51.95538579249352</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-21.74999915062276</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>223.699101</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>9.491520369973534</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>212.743878</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>10.69602124674356</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>198.925428</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>9.243059923270469</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>103.943399</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>9.810832188821653</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-8.165773893540662</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>82.419141</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>3.497032183769129</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>95.984593</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>4.825771043282539</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>119.327596</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>5.544550696293133</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>94.897352</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>8.957009339626646</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>67.1540019933627</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>18.239148</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0.7738844009612807</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>35.899191</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>1.804886294668866</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>77.761189</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>3.613169703129961</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>54.500709</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>5.144119927911939</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>42.87914296280088</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>139.541032</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>5.920705723690543</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>88.47449400000001</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>4.44818942154888</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>96.71368099999999</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>4.493796282710848</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>27.259213</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>2.572896084938936</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-44.80197928078628</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>METERS AND COUNTERS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>74.73493499999999</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>3.170992439085162</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>49.633011</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>2.495374932461543</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>20.314564</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.9439151859817188</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>24.607677</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.322627429219688</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>118.0276443685701</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>37.094223</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.573902495087992</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>37.758363</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.898358987750782</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>43.807996</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>2.035536312363209</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>22.410277</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.115222987387679</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-14.39400259664496</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>26.104174</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1.10759631198667</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>71.36899</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>3.588184255053528</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>46.626322</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>2.166489687018314</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>21.690494</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.047285337731191</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-23.39152442767549</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>101.747361</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>4.317125751535992</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>83.627717</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>4.204510354223483</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>51.362512</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>2.38655651516657</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>21.640372</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.042554507917091</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-23.94556057765517</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>30.044395</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.274779316820013</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>25.674653</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.290832133795964</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>20.578159</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.9561631142881718</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>16.38287</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.546318379883658</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-1.511550887665525</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>183.23513</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>7.774639956598434</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>192.895642</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>9.698121067607122</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>216.044597</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>10.0385012426356</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>121.688728</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>11.48574802406801</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>2.754061396940743</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -977,136 +1274,589 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>76.51209307446692</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>12.30825415780229</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>66.91023915309644</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>13.36110397474951</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-88.25967073544351</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>9.813006936543472</v>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>1.407247242140899</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>28.43629031254279</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>6.159482627749046</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>0.3137960142400998</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-96.42371640698526</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>34.6709650116379</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>14.09566123857621</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>7.422551033833635</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>5.412065946744664</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>TIN</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>36.89274467581932</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>NON-ELECTRIC PARTS AND ACCESSORIES OF MACHINERY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>0.7192</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>83.38212362396888</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>2.902374976087927</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1138,136 +1888,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>1439.972429</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>61.12018934969358</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>1094.939612</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>55.05197395834869</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>1260.697843</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>58.58364055994768</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>550.454772</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>51.96073097905766</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-21.74999915062276</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>223.699101</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>9.494995275688177</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>212.743878</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>10.69645330490985</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>198.925428</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>9.2439087104758</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>103.943399</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>9.811841530348019</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-8.165773893540662</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>82.419141</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>3.498312469397352</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>95.984593</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>4.825965976869505</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>119.327596</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>5.545059850591535</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>94.897352</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>8.957930839587561</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>67.1540019933627</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>18.239148</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.7741677249412704</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>35.899191</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>1.804959201766267</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>77.761189</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>3.613501499335997</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>54.500709</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>5.144649156601202</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>42.87914296280088</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>139.541032</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>5.922873331550192</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>88.47449400000001</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>4.448369102994949</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>96.71368099999999</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>4.494208946571063</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>27.259213</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>2.573160785303958</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-44.80197928078628</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>METERS AND COUNTERS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>74.73493499999999</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>3.172153359498137</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>49.633011</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>2.495475731356072</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>20.314564</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.9440018654081674</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>24.607677</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.322866381866056</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>118.0276443685701</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>37.094223</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.574478710758537</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>37.758363</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.898435670611099</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>43.793328</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>2.035041624542457</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>22.410277</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.115440602199309</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-14.34600986526079</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>26.104174</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.108001810010592</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>71.36899</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>3.58832919720293</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>46.626322</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>2.166688635066048</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>21.690494</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.047495963095882</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-23.39152442767549</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>101.747361</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>4.318706278612803</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>83.627717</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>4.204680192427045</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>51.362512</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>2.386775671880006</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>21.640372</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.042764646572511</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-23.94556057765517</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>30.019361</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1.274183443742038</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>25.674653</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.29088427604137</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>20.578159</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.9562509184379182</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>16.38287</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.546477465608881</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-1.511550887665525</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>182.397629</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>7.741938246107323</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>192.815301</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>9.694473387472225</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>215.861651</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>10.03092171774333</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>121.57974</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>11.47664164975897</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>2.80218226213127</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1299,136 +2346,447 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>78.607737</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>34.56500813184903</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>93.819204</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>43.34966568100248</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>61.2939</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>26.17192518308262</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>35.388146</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>23.01476310188092</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>1.089908573256149</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>1.54976</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>0.6814528575274257</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>4.326683</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>1.999167052810178</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>41.585421</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>17.75658796583335</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>22.215666</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>14.44801008056513</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>4.730459739499326</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>0.990069</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>0.4353482792169889</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>2.464372</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>1.138676281176117</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>4.414092</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>1.884776226920517</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>11.82521</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>7.690552841620843</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>690.2180428467659</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>20.598464</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>9.057455446956823</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>16.936719</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>7.825701722891218</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>19.756908</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>8.436015949793477</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>8.301881</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>5.399147627428865</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-33.713029033822</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>7.0008</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>3.078357400486528</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>5.761184</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>2.661985922698093</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>9.921188000000001</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>4.23625499541222</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>8.264803000000001</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>5.375033863845671</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>383.1161353529023</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>MOTOR CARS AND OTHER MOTOR VEHICLES PRINCIPALLY DESIGNED FOR THE TRANSPORT OF PERSONS (OTHER THAN PUBLIC-TRANSPORT TYPE VEHICLES), INCLUDING STATION WAGONS AND RACING CARS</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>7.33999</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>4.773579577188783</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>3.675851</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>1.61632715245912</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>4.755352</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>2.197235860106919</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>7.110159</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>3.035971758818113</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>6.696977</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>4.355394576300922</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>77.30182078502325</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>8.432867999999999</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>3.708059309668327</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>10.371745</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>4.792320325789687</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>10.559921</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>4.508988045323645</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>6.424391</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>4.178117636873541</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>39.09299307565168</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>2.178046</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.9577196924208777</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>1.570115</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.7254800449034635</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>2.274482</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.9711826582134294</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>6.297464</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>4.095570367055211</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>266.5371629192065</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>OTHER CRUDE MINERALS</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>1.546043</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.6798184365387374</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>1.087488</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.5024796547208183</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>5.725711</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>2.44482534007386</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>5.097516</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>3.315181392889235</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>208.764274435004</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>102.840349</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>45.22045329287614</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>75.331423</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>34.80728745390103</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>71.555357</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>30.55347187652877</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>35.910764</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>23.35464893435088</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-15.46596084874324</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
